--- a/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H2">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I2">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J2">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.422726726418454</v>
+        <v>0.03467933333333333</v>
       </c>
       <c r="N2">
-        <v>0.422726726418454</v>
+        <v>0.104038</v>
       </c>
       <c r="O2">
-        <v>0.01444911493346517</v>
+        <v>0.001079709358115028</v>
       </c>
       <c r="P2">
-        <v>0.01444911493346517</v>
+        <v>0.001081023297788346</v>
       </c>
       <c r="Q2">
-        <v>6.090240184504636</v>
+        <v>0.639441326462889</v>
       </c>
       <c r="R2">
-        <v>6.090240184504636</v>
+        <v>5.754971938166</v>
       </c>
       <c r="S2">
-        <v>0.004245313749323045</v>
+        <v>0.0003437636166988943</v>
       </c>
       <c r="T2">
-        <v>0.004245313749323045</v>
+        <v>0.0003765609173962915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H3">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I3">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J3">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.1539429680659</v>
+        <v>0.4239093333333333</v>
       </c>
       <c r="N3">
-        <v>15.1539429680659</v>
+        <v>1.271728</v>
       </c>
       <c r="O3">
-        <v>0.5179730780116621</v>
+        <v>0.01319802978312644</v>
       </c>
       <c r="P3">
-        <v>0.5179730780116621</v>
+        <v>0.01321409097108536</v>
       </c>
       <c r="Q3">
-        <v>218.3234384060403</v>
+        <v>7.816330948499556</v>
       </c>
       <c r="R3">
-        <v>218.3234384060403</v>
+        <v>70.346978536496</v>
       </c>
       <c r="S3">
-        <v>0.1521863615860059</v>
+        <v>0.00420205902398404</v>
       </c>
       <c r="T3">
-        <v>0.1521863615860059</v>
+        <v>0.004602962978513149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H4">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I4">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J4">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6640385706305</v>
+        <v>16.98086433333333</v>
       </c>
       <c r="N4">
-        <v>13.6640385706305</v>
+        <v>50.942593</v>
       </c>
       <c r="O4">
-        <v>0.4670470339907098</v>
+        <v>0.5286836962335409</v>
       </c>
       <c r="P4">
-        <v>0.4670470339907098</v>
+        <v>0.5293270716733264</v>
       </c>
       <c r="Q4">
-        <v>196.8583285247477</v>
+        <v>313.1048197906446</v>
       </c>
       <c r="R4">
-        <v>196.8583285247477</v>
+        <v>2817.943378115801</v>
       </c>
       <c r="S4">
-        <v>0.1372237126018767</v>
+        <v>0.1683251313337413</v>
       </c>
       <c r="T4">
-        <v>0.1372237126018767</v>
+        <v>0.1843844513987764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4070384101429</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H5">
-        <v>14.4070384101429</v>
+        <v>55.316057</v>
       </c>
       <c r="I5">
-        <v>0.2938113350798117</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J5">
-        <v>0.2938113350798117</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0155284223925034</v>
+        <v>14.562566</v>
       </c>
       <c r="N5">
-        <v>0.0155284223925034</v>
+        <v>43.687698</v>
       </c>
       <c r="O5">
-        <v>0.0005307730641629023</v>
+        <v>0.4533921871345394</v>
       </c>
       <c r="P5">
-        <v>0.0005307730641629023</v>
+        <v>0.453943937453059</v>
       </c>
       <c r="Q5">
-        <v>0.2237185778577196</v>
+        <v>268.5145769740874</v>
       </c>
       <c r="R5">
-        <v>0.2237185778577196</v>
+        <v>2416.631192766786</v>
       </c>
       <c r="S5">
-        <v>0.0001559471426061049</v>
+        <v>0.1443534196133053</v>
       </c>
       <c r="T5">
-        <v>0.0001559471426061049</v>
+        <v>0.158125681364618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.0494712063533</v>
+        <v>18.43868566666667</v>
       </c>
       <c r="H6">
-        <v>15.0494712063533</v>
+        <v>55.316057</v>
       </c>
       <c r="I6">
-        <v>0.3069128506154923</v>
+        <v>0.3183853266762842</v>
       </c>
       <c r="J6">
-        <v>0.3069128506154923</v>
+        <v>0.3483374670709626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.422726726418454</v>
+        <v>0.1171185</v>
       </c>
       <c r="N6">
-        <v>0.422726726418454</v>
+        <v>0.234237</v>
       </c>
       <c r="O6">
-        <v>0.01444911493346517</v>
+        <v>0.00364637749067826</v>
       </c>
       <c r="P6">
-        <v>0.01444911493346517</v>
+        <v>0.002433876604741046</v>
       </c>
       <c r="Q6">
-        <v>6.361813697390512</v>
+        <v>2.1595112072515</v>
       </c>
       <c r="R6">
-        <v>6.361813697390512</v>
+        <v>12.957067243509</v>
       </c>
       <c r="S6">
-        <v>0.004434619053100673</v>
+        <v>0.001160953088554647</v>
       </c>
       <c r="T6">
-        <v>0.004434619053100673</v>
+        <v>0.0008478104116587702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H7">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J7">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>15.1539429680659</v>
+        <v>0.03467933333333333</v>
       </c>
       <c r="N7">
-        <v>15.1539429680659</v>
+        <v>0.104038</v>
       </c>
       <c r="O7">
-        <v>0.5179730780116621</v>
+        <v>0.001079709358115028</v>
       </c>
       <c r="P7">
-        <v>0.5179730780116621</v>
+        <v>0.001081023297788346</v>
       </c>
       <c r="Q7">
-        <v>228.0588283606278</v>
+        <v>0.5841754854393334</v>
       </c>
       <c r="R7">
-        <v>228.0588283606278</v>
+        <v>5.257579368954</v>
       </c>
       <c r="S7">
-        <v>0.15897259391464</v>
+        <v>0.0003140527040569881</v>
       </c>
       <c r="T7">
-        <v>0.15897259391464</v>
+        <v>0.0003440153890807777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H8">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J8">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6640385706305</v>
+        <v>0.4239093333333333</v>
       </c>
       <c r="N8">
-        <v>13.6640385706305</v>
+        <v>1.271728</v>
       </c>
       <c r="O8">
-        <v>0.4670470339907098</v>
+        <v>0.01319802978312644</v>
       </c>
       <c r="P8">
-        <v>0.4670470339907098</v>
+        <v>0.01321409097108536</v>
       </c>
       <c r="Q8">
-        <v>205.6365550312046</v>
+        <v>7.140778578469333</v>
       </c>
       <c r="R8">
-        <v>205.6365550312046</v>
+        <v>64.26700720622401</v>
       </c>
       <c r="S8">
-        <v>0.1433427365735995</v>
+        <v>0.003838882112545275</v>
       </c>
       <c r="T8">
-        <v>0.1433427365735995</v>
+        <v>0.004205136610901009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.0494712063533</v>
+        <v>16.845061</v>
       </c>
       <c r="H9">
-        <v>15.0494712063533</v>
+        <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.3069128506154923</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J9">
-        <v>0.3069128506154923</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0155284223925034</v>
+        <v>16.98086433333333</v>
       </c>
       <c r="N9">
-        <v>0.0155284223925034</v>
+        <v>50.942593</v>
       </c>
       <c r="O9">
-        <v>0.0005307730641629023</v>
+        <v>0.5286836962335409</v>
       </c>
       <c r="P9">
-        <v>0.0005307730641629023</v>
+        <v>0.5293270716733264</v>
       </c>
       <c r="Q9">
-        <v>0.2336945456760717</v>
+        <v>286.0436955277244</v>
       </c>
       <c r="R9">
-        <v>0.2336945456760717</v>
+        <v>2574.393259749519</v>
       </c>
       <c r="S9">
-        <v>0.000162901074152156</v>
+        <v>0.1537770726400411</v>
       </c>
       <c r="T9">
-        <v>0.000162901074152156</v>
+        <v>0.168448412615378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42942455136514</v>
+        <v>16.845061</v>
       </c>
       <c r="H10">
-        <v>2.42942455136514</v>
+        <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.04954470520532085</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J10">
-        <v>0.04954470520532085</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.422726726418454</v>
+        <v>14.562566</v>
       </c>
       <c r="N10">
-        <v>0.422726726418454</v>
+        <v>43.687698</v>
       </c>
       <c r="O10">
-        <v>0.01444911493346517</v>
+        <v>0.4533921871345394</v>
       </c>
       <c r="P10">
-        <v>0.01444911493346517</v>
+        <v>0.453943937453059</v>
       </c>
       <c r="Q10">
-        <v>1.026982687679207</v>
+        <v>245.3073125865261</v>
       </c>
       <c r="R10">
-        <v>1.026982687679207</v>
+        <v>2207.765813278734</v>
       </c>
       <c r="S10">
-        <v>0.0007158771398563308</v>
+        <v>0.131877195745065</v>
       </c>
       <c r="T10">
-        <v>0.0007158771398563308</v>
+        <v>0.1444591440196228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.42942455136514</v>
+        <v>16.845061</v>
       </c>
       <c r="H11">
-        <v>2.42942455136514</v>
+        <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.04954470520532085</v>
+        <v>0.2908678170626081</v>
       </c>
       <c r="J11">
-        <v>0.04954470520532085</v>
+        <v>0.3182312442151755</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.1539429680659</v>
+        <v>0.1171185</v>
       </c>
       <c r="N11">
-        <v>15.1539429680659</v>
+        <v>0.234237</v>
       </c>
       <c r="O11">
-        <v>0.5179730780116621</v>
+        <v>0.00364637749067826</v>
       </c>
       <c r="P11">
-        <v>0.5179730780116621</v>
+        <v>0.002433876604741046</v>
       </c>
       <c r="Q11">
-        <v>36.81536109660642</v>
+        <v>1.9728682767285</v>
       </c>
       <c r="R11">
-        <v>36.81536109660642</v>
+        <v>11.837209660371</v>
       </c>
       <c r="S11">
-        <v>0.02566282345438046</v>
+        <v>0.001060613860899816</v>
       </c>
       <c r="T11">
-        <v>0.02566282345438046</v>
+        <v>0.0007745355801929499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H12">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I12">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J12">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>13.6640385706305</v>
+        <v>0.03467933333333333</v>
       </c>
       <c r="N12">
-        <v>13.6640385706305</v>
+        <v>0.104038</v>
       </c>
       <c r="O12">
-        <v>0.4670470339907098</v>
+        <v>0.001079709358115028</v>
       </c>
       <c r="P12">
-        <v>0.4670470339907098</v>
+        <v>0.001081023297788346</v>
       </c>
       <c r="Q12">
-        <v>33.19575077428997</v>
+        <v>0.1653252367897778</v>
       </c>
       <c r="R12">
-        <v>33.19575077428997</v>
+        <v>1.487927131108</v>
       </c>
       <c r="S12">
-        <v>0.02313970761608919</v>
+        <v>8.887883685095772E-05</v>
       </c>
       <c r="T12">
-        <v>0.02313970761608919</v>
+        <v>9.735846004618676E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.42942455136514</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H13">
-        <v>2.42942455136514</v>
+        <v>14.301766</v>
       </c>
       <c r="I13">
-        <v>0.04954470520532085</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J13">
-        <v>0.04954470520532085</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0155284223925034</v>
+        <v>0.4239093333333333</v>
       </c>
       <c r="N13">
-        <v>0.0155284223925034</v>
+        <v>1.271728</v>
       </c>
       <c r="O13">
-        <v>0.0005307730641629023</v>
+        <v>0.01319802978312644</v>
       </c>
       <c r="P13">
-        <v>0.0005307730641629023</v>
+        <v>0.01321409097108536</v>
       </c>
       <c r="Q13">
-        <v>0.03772513060431596</v>
+        <v>2.020884030183111</v>
       </c>
       <c r="R13">
-        <v>0.03772513060431596</v>
+        <v>18.187956271648</v>
       </c>
       <c r="S13">
-        <v>2.629699499487585E-05</v>
+        <v>0.001086427126922805</v>
       </c>
       <c r="T13">
-        <v>2.629699499487585E-05</v>
+        <v>0.001190079390968848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.87287020472695</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H14">
-        <v>2.87287020472695</v>
+        <v>14.301766</v>
       </c>
       <c r="I14">
-        <v>0.05858815714460672</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J14">
-        <v>0.05858815714460672</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.422726726418454</v>
+        <v>16.98086433333333</v>
       </c>
       <c r="N14">
-        <v>0.422726726418454</v>
+        <v>50.942593</v>
       </c>
       <c r="O14">
-        <v>0.01444911493346517</v>
+        <v>0.5286836962335409</v>
       </c>
       <c r="P14">
-        <v>0.01444911493346517</v>
+        <v>0.5293270716733264</v>
       </c>
       <c r="Q14">
-        <v>1.214439017069337</v>
+        <v>80.9521160576931</v>
       </c>
       <c r="R14">
-        <v>1.214439017069337</v>
+        <v>728.569044519238</v>
       </c>
       <c r="S14">
-        <v>0.0008465470163223407</v>
+        <v>0.04351985247709243</v>
       </c>
       <c r="T14">
-        <v>0.0008465470163223407</v>
+        <v>0.04767193146004011</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.87287020472695</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H15">
-        <v>2.87287020472695</v>
+        <v>14.301766</v>
       </c>
       <c r="I15">
-        <v>0.05858815714460672</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J15">
-        <v>0.05858815714460672</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.1539429680659</v>
+        <v>14.562566</v>
       </c>
       <c r="N15">
-        <v>15.1539429680659</v>
+        <v>43.687698</v>
       </c>
       <c r="O15">
-        <v>0.5179730780116621</v>
+        <v>0.4533921871345394</v>
       </c>
       <c r="P15">
-        <v>0.5179730780116621</v>
+        <v>0.453943937453059</v>
       </c>
       <c r="Q15">
-        <v>43.535311237088</v>
+        <v>69.42347043051868</v>
       </c>
       <c r="R15">
-        <v>43.535311237088</v>
+        <v>624.811233874668</v>
       </c>
       <c r="S15">
-        <v>0.0303470880912229</v>
+        <v>0.03732205331644124</v>
       </c>
       <c r="T15">
-        <v>0.0303470880912229</v>
+        <v>0.04088282166365053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.87287020472695</v>
+        <v>4.767255333333333</v>
       </c>
       <c r="H16">
-        <v>2.87287020472695</v>
+        <v>14.301766</v>
       </c>
       <c r="I16">
-        <v>0.05858815714460672</v>
+        <v>0.08231737196954897</v>
       </c>
       <c r="J16">
-        <v>0.05858815714460672</v>
+        <v>0.09006138928307221</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6640385706305</v>
+        <v>0.1171185</v>
       </c>
       <c r="N16">
-        <v>13.6640385706305</v>
+        <v>0.234237</v>
       </c>
       <c r="O16">
-        <v>0.4670470339907098</v>
+        <v>0.00364637749067826</v>
       </c>
       <c r="P16">
-        <v>0.4670470339907098</v>
+        <v>0.002433876604741046</v>
       </c>
       <c r="Q16">
-        <v>39.25500928580419</v>
+        <v>0.558333793757</v>
       </c>
       <c r="R16">
-        <v>39.25500928580419</v>
+        <v>3.350002762542</v>
       </c>
       <c r="S16">
-        <v>0.02736342502137018</v>
+        <v>0.0003001602122415529</v>
       </c>
       <c r="T16">
-        <v>0.02736342502137018</v>
+        <v>0.0002191983083665454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.87287020472695</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H17">
-        <v>2.87287020472695</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I17">
-        <v>0.05858815714460672</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J17">
-        <v>0.05858815714460672</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.0155284223925034</v>
+        <v>0.03467933333333333</v>
       </c>
       <c r="N17">
-        <v>0.0155284223925034</v>
+        <v>0.104038</v>
       </c>
       <c r="O17">
-        <v>0.0005307730641629023</v>
+        <v>0.001079709358115028</v>
       </c>
       <c r="P17">
-        <v>0.0005307730641629023</v>
+        <v>0.001081023297788346</v>
       </c>
       <c r="Q17">
-        <v>0.04461114201783779</v>
+        <v>0.1013664197577778</v>
       </c>
       <c r="R17">
-        <v>0.04461114201783779</v>
+        <v>0.91229777782</v>
       </c>
       <c r="S17">
-        <v>3.109701569130054E-05</v>
+        <v>5.449458085623795E-05</v>
       </c>
       <c r="T17">
-        <v>3.109701569130054E-05</v>
+        <v>5.969372081143033E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2761942472891</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H18">
-        <v>14.2761942472891</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I18">
-        <v>0.2911429519547685</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J18">
-        <v>0.2911429519547685</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.422726726418454</v>
+        <v>0.4239093333333333</v>
       </c>
       <c r="N18">
-        <v>0.422726726418454</v>
+        <v>1.271728</v>
       </c>
       <c r="O18">
-        <v>0.01444911493346517</v>
+        <v>0.01319802978312644</v>
       </c>
       <c r="P18">
-        <v>0.01444911493346517</v>
+        <v>0.01321409097108536</v>
       </c>
       <c r="Q18">
-        <v>6.034928859870486</v>
+        <v>1.239071437991111</v>
       </c>
       <c r="R18">
-        <v>6.034928859870486</v>
+        <v>11.15164294192</v>
       </c>
       <c r="S18">
-        <v>0.004206757974862777</v>
+        <v>0.0006661247267646607</v>
       </c>
       <c r="T18">
-        <v>0.004206757974862777</v>
+        <v>0.0007296773888394497</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2761942472891</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H19">
-        <v>14.2761942472891</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I19">
-        <v>0.2911429519547685</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J19">
-        <v>0.2911429519547685</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.1539429680659</v>
+        <v>16.98086433333333</v>
       </c>
       <c r="N19">
-        <v>15.1539429680659</v>
+        <v>50.942593</v>
       </c>
       <c r="O19">
-        <v>0.5179730780116621</v>
+        <v>0.5286836962335409</v>
       </c>
       <c r="P19">
-        <v>0.5179730780116621</v>
+        <v>0.5293270716733264</v>
       </c>
       <c r="Q19">
-        <v>216.3406334244495</v>
+        <v>49.63444381464111</v>
       </c>
       <c r="R19">
-        <v>216.3406334244495</v>
+        <v>446.70999433177</v>
       </c>
       <c r="S19">
-        <v>0.1508042109654129</v>
+        <v>0.02668347385825296</v>
       </c>
       <c r="T19">
-        <v>0.1508042109654129</v>
+        <v>0.02922925204206467</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2761942472891</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H20">
-        <v>14.2761942472891</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I20">
-        <v>0.2911429519547685</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J20">
-        <v>0.2911429519547685</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.6640385706305</v>
+        <v>14.562566</v>
       </c>
       <c r="N20">
-        <v>13.6640385706305</v>
+        <v>43.687698</v>
       </c>
       <c r="O20">
-        <v>0.4670470339907098</v>
+        <v>0.4533921871345394</v>
       </c>
       <c r="P20">
-        <v>0.4670470339907098</v>
+        <v>0.453943937453059</v>
       </c>
       <c r="Q20">
-        <v>195.0704688367715</v>
+        <v>42.56584645724667</v>
       </c>
       <c r="R20">
-        <v>195.0704688367715</v>
+        <v>383.09261811522</v>
       </c>
       <c r="S20">
-        <v>0.1359774521777743</v>
+        <v>0.02288339636559628</v>
       </c>
       <c r="T20">
-        <v>0.1359774521777743</v>
+        <v>0.02506662226596131</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2761942472891</v>
+        <v>2.922963333333333</v>
       </c>
       <c r="H21">
-        <v>14.2761942472891</v>
+        <v>8.768889999999999</v>
       </c>
       <c r="I21">
-        <v>0.2911429519547685</v>
+        <v>0.05047152777426636</v>
       </c>
       <c r="J21">
-        <v>0.2911429519547685</v>
+        <v>0.05521964321542102</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.0155284223925034</v>
+        <v>0.1171185</v>
       </c>
       <c r="N21">
-        <v>0.0155284223925034</v>
+        <v>0.234237</v>
       </c>
       <c r="O21">
-        <v>0.0005307730641629023</v>
+        <v>0.00364637749067826</v>
       </c>
       <c r="P21">
-        <v>0.0005307730641629023</v>
+        <v>0.002433876604741046</v>
       </c>
       <c r="Q21">
-        <v>0.2216867744293323</v>
+        <v>0.342333081155</v>
       </c>
       <c r="R21">
-        <v>0.2216867744293323</v>
+        <v>2.05399848693</v>
       </c>
       <c r="S21">
-        <v>0.0001545308367184651</v>
+        <v>0.0001840382427962275</v>
       </c>
       <c r="T21">
-        <v>0.0001545308367184651</v>
+        <v>0.0001343977977441608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>14.9391485</v>
+      </c>
+      <c r="H22">
+        <v>29.878297</v>
+      </c>
+      <c r="I22">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J22">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.03467933333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.104038</v>
+      </c>
+      <c r="O22">
+        <v>0.001079709358115028</v>
+      </c>
+      <c r="P22">
+        <v>0.001081023297788346</v>
+      </c>
+      <c r="Q22">
+        <v>0.5180797105476667</v>
+      </c>
+      <c r="R22">
+        <v>3.108478263286</v>
+      </c>
+      <c r="S22">
+        <v>0.0002785196196519499</v>
+      </c>
+      <c r="T22">
+        <v>0.0002033948104536602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>14.9391485</v>
+      </c>
+      <c r="H23">
+        <v>29.878297</v>
+      </c>
+      <c r="I23">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J23">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4239093333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.271728</v>
+      </c>
+      <c r="O23">
+        <v>0.01319802978312644</v>
+      </c>
+      <c r="P23">
+        <v>0.01321409097108536</v>
+      </c>
+      <c r="Q23">
+        <v>6.332844481202666</v>
+      </c>
+      <c r="R23">
+        <v>37.997066887216</v>
+      </c>
+      <c r="S23">
+        <v>0.003404536792909659</v>
+      </c>
+      <c r="T23">
+        <v>0.0024862346018629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>14.9391485</v>
+      </c>
+      <c r="H24">
+        <v>29.878297</v>
+      </c>
+      <c r="I24">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J24">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>16.98086433333333</v>
+      </c>
+      <c r="N24">
+        <v>50.942593</v>
+      </c>
+      <c r="O24">
+        <v>0.5286836962335409</v>
+      </c>
+      <c r="P24">
+        <v>0.5293270716733264</v>
+      </c>
+      <c r="Q24">
+        <v>253.6796539340202</v>
+      </c>
+      <c r="R24">
+        <v>1522.077923604121</v>
+      </c>
+      <c r="S24">
+        <v>0.1363781659244131</v>
+      </c>
+      <c r="T24">
+        <v>0.09959302415706718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.9391485</v>
+      </c>
+      <c r="H25">
+        <v>29.878297</v>
+      </c>
+      <c r="I25">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J25">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.562566</v>
+      </c>
+      <c r="N25">
+        <v>43.687698</v>
+      </c>
+      <c r="O25">
+        <v>0.4533921871345394</v>
+      </c>
+      <c r="P25">
+        <v>0.453943937453059</v>
+      </c>
+      <c r="Q25">
+        <v>217.552336015051</v>
+      </c>
+      <c r="R25">
+        <v>1305.314016090306</v>
+      </c>
+      <c r="S25">
+        <v>0.1169561220941315</v>
+      </c>
+      <c r="T25">
+        <v>0.08540966813920635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.9391485</v>
+      </c>
+      <c r="H26">
+        <v>29.878297</v>
+      </c>
+      <c r="I26">
+        <v>0.2579579565172923</v>
+      </c>
+      <c r="J26">
+        <v>0.1881502562153687</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1171185</v>
+      </c>
+      <c r="N26">
+        <v>0.234237</v>
+      </c>
+      <c r="O26">
+        <v>0.00364637749067826</v>
+      </c>
+      <c r="P26">
+        <v>0.002433876604741046</v>
+      </c>
+      <c r="Q26">
+        <v>1.74965066359725</v>
+      </c>
+      <c r="R26">
+        <v>6.998602654389</v>
+      </c>
+      <c r="S26">
+        <v>0.0009406120861860157</v>
+      </c>
+      <c r="T26">
+        <v>0.0004579345067786194</v>
       </c>
     </row>
   </sheetData>
